--- a/protools-core/src/test/java/org/oops/protools/core/file/student.xlsx
+++ b/protools-core/src/test/java/org/oops/protools/core/file/student.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/094343b69195610d/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/houguangyu/gitCode_yuKuai/protools/protools/protools-core/src/test/java/org/oops/protools/core/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DA82427541F7ACA7EB8A4380C36D86BE8DE15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA412DBF-36FD-4035-8682-B9B06E58FAE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93480A7-3607-5D4B-B2D3-80C785E3F9A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="4500" windowWidth="16200" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ww</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,15 +402,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,36 +430,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">NOW()</f>
-        <v>44278.985566435185</v>
+        <v>44279.462094560186</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>24</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -467,7 +468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
